--- a/data/New Caledonia RORC/stations_coordinates.xlsx
+++ b/data/New Caledonia RORC/stations_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolascasajus/OneDrive/OneDrive - Fondation Biodiversité/MySpace/GROUPS/SCOREREEF/caledonia/data/New Caledonia RORC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D16B5A1-CD1F-DE44-924F-BFC1475EF367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0262032-78A7-024C-AF49-FEEEBD231D90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11000" yWindow="0" windowWidth="20920" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="133">
   <si>
     <t>SITE</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Jothie</t>
   </si>
   <si>
-    <t>Luecilla</t>
-  </si>
-  <si>
-    <t>Luecilla2</t>
-  </si>
-  <si>
     <t>Qanono</t>
   </si>
   <si>
@@ -371,12 +365,6 @@
   </si>
   <si>
     <t>Siandé</t>
-  </si>
-  <si>
-    <t>Luecilla 1</t>
-  </si>
-  <si>
-    <t>Luecilla 2</t>
   </si>
   <si>
     <t>site_name</t>
@@ -884,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -908,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -951,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" s="4">
         <v>-21.653516666666661</v>
@@ -971,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" s="4">
         <v>-21.661633333333331</v>
@@ -1041,1562 +1029,1522 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="10">
-        <v>-20.900700000000001</v>
-      </c>
-      <c r="F8" s="10">
-        <v>167.2651333333333</v>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-20.90666666666667</v>
+      </c>
+      <c r="F8" s="8">
+        <v>167.26436666666669</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="10">
-        <v>-20.90186666666667</v>
-      </c>
-      <c r="F9" s="10">
-        <v>167.26301666666669</v>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-21.625055555555559</v>
+      </c>
+      <c r="F9" s="4">
+        <v>165.36713888888889</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="8">
-        <v>-20.90666666666667</v>
-      </c>
-      <c r="F10" s="8">
-        <v>167.26436666666669</v>
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-21.613555555555561</v>
+      </c>
+      <c r="F10" s="4">
+        <v>165.38055555555559</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4">
-        <v>-21.625055555555559</v>
+        <v>-21.597777777777779</v>
       </c>
       <c r="F11" s="4">
-        <v>165.36713888888889</v>
+        <v>165.33844444444449</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8">
+        <v>-20.788266666666669</v>
+      </c>
+      <c r="F12" s="8">
+        <v>167.1148666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4">
-        <v>-21.613555555555561</v>
-      </c>
-      <c r="F12" s="4">
-        <v>165.38055555555559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4">
-        <v>-21.597777777777779</v>
-      </c>
-      <c r="F13" s="4">
-        <v>165.33844444444449</v>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8">
+        <v>-20.788866666666671</v>
+      </c>
+      <c r="F13" s="8">
+        <v>167.12568333333331</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="8">
-        <v>-20.788266666666669</v>
+        <v>-20.778966666666669</v>
       </c>
       <c r="F14" s="8">
-        <v>167.1148666666667</v>
+        <v>167.04548333333329</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8">
-        <v>-20.788866666666671</v>
-      </c>
-      <c r="F15" s="8">
-        <v>167.12568333333331</v>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-20.630516666666669</v>
+      </c>
+      <c r="F15" s="4">
+        <v>165.07169999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="8">
-        <v>-20.778966666666669</v>
-      </c>
-      <c r="F16" s="8">
-        <v>167.04548333333329</v>
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-20.644649999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>164.98321666666669</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="4">
-        <v>-20.630516666666669</v>
+        <v>-20.690583333333329</v>
       </c>
       <c r="F17" s="4">
-        <v>165.07169999999999</v>
+        <v>164.99243333333331</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="4">
-        <v>-20.644649999999999</v>
-      </c>
-      <c r="F18" s="4">
-        <v>164.98321666666669</v>
+      <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="8">
+        <v>-20.405638888888891</v>
+      </c>
+      <c r="F18" s="8">
+        <v>166.54861111111109</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="4">
-        <v>-20.690583333333329</v>
-      </c>
-      <c r="F19" s="4">
-        <v>164.99243333333331</v>
+      <c r="A19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="8">
+        <v>-20.41063888888889</v>
+      </c>
+      <c r="F19" s="8">
+        <v>166.49597222222221</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="8">
-        <v>-20.405638888888891</v>
+        <v>-20.428166666666669</v>
       </c>
       <c r="F20" s="8">
-        <v>166.54861111111109</v>
+        <v>166.47944444444451</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="8">
-        <v>-20.41063888888889</v>
-      </c>
-      <c r="F21" s="8">
-        <v>166.49597222222221</v>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-22.526388888888889</v>
+      </c>
+      <c r="F21" s="4">
+        <v>167.41094444444451</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="8">
-        <v>-20.428166666666669</v>
-      </c>
-      <c r="F22" s="8">
-        <v>166.47944444444451</v>
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-22.527888888888889</v>
+      </c>
+      <c r="F22" s="4">
+        <v>167.4327222222222</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="4">
-        <v>-22.526388888888889</v>
+        <v>-22.59858333333333</v>
       </c>
       <c r="F23" s="4">
-        <v>167.41094444444451</v>
+        <v>167.3989444444444</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="4">
-        <v>-22.527888888888889</v>
-      </c>
-      <c r="F24" s="4">
-        <v>167.4327222222222</v>
+      <c r="D24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="8">
+        <v>-22.3962</v>
+      </c>
+      <c r="F24" s="8">
+        <v>166.82315</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="4">
-        <v>-22.59858333333333</v>
-      </c>
-      <c r="F25" s="4">
-        <v>167.3989444444444</v>
+      <c r="A25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="8">
+        <v>-22.425000000000001</v>
+      </c>
+      <c r="F25" s="8">
+        <v>166.84788333333341</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="8">
-        <v>-22.3962</v>
+        <v>-22.434533333333331</v>
       </c>
       <c r="F26" s="8">
-        <v>166.82315</v>
+        <v>166.84113333333329</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="8">
-        <v>-22.425000000000001</v>
-      </c>
-      <c r="F27" s="8">
-        <v>166.84788333333341</v>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-20.589083333333331</v>
+      </c>
+      <c r="F27" s="4">
+        <v>164.27283333333341</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="8">
-        <v>-22.434533333333331</v>
-      </c>
-      <c r="F28" s="8">
-        <v>166.84113333333329</v>
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-20.555277777777778</v>
+      </c>
+      <c r="F28" s="4">
+        <v>164.18322222222221</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="4">
-        <v>-20.589083333333331</v>
+        <v>-20.669972222222221</v>
       </c>
       <c r="F29" s="4">
-        <v>164.27283333333341</v>
+        <v>164.24030555555561</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="4">
-        <v>-20.555277777777778</v>
-      </c>
-      <c r="F30" s="4">
-        <v>164.18322222222221</v>
+      <c r="D30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="8">
+        <v>-21.911555555555559</v>
+      </c>
+      <c r="F30" s="8">
+        <v>165.75825</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="4">
-        <v>-20.669972222222221</v>
-      </c>
-      <c r="F31" s="4">
-        <v>164.24030555555561</v>
+      <c r="A31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="8">
+        <v>-21.892138888888891</v>
+      </c>
+      <c r="F31" s="8">
+        <v>165.84144444444439</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="8">
-        <v>-21.911555555555559</v>
+        <v>-21.890111111111111</v>
       </c>
       <c r="F32" s="8">
-        <v>165.75825</v>
+        <v>165.87536111111109</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="B33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="8">
-        <v>-21.892138888888891</v>
-      </c>
-      <c r="F33" s="8">
-        <v>165.84144444444439</v>
+      <c r="C33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="4">
+        <v>-20.70580555555555</v>
+      </c>
+      <c r="F33" s="4">
+        <v>166.47774999999999</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="8">
-        <v>-21.890111111111111</v>
-      </c>
-      <c r="F34" s="8">
-        <v>165.87536111111109</v>
+      <c r="E34" s="4">
+        <v>-20.65059722222222</v>
+      </c>
+      <c r="F34" s="4">
+        <v>166.35374999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="8">
+        <v>-21.030950000000001</v>
+      </c>
+      <c r="F35" s="8">
+        <v>167.4188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="4">
-        <v>-20.70580555555555</v>
-      </c>
-      <c r="F35" s="4">
-        <v>166.47774999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="4">
-        <v>-20.65059722222222</v>
-      </c>
-      <c r="F36" s="4">
-        <v>166.35374999999999</v>
+      <c r="E36" s="8">
+        <v>-21.02613333333333</v>
+      </c>
+      <c r="F36" s="8">
+        <v>167.41203333333331</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="8">
-        <v>-21.030950000000001</v>
-      </c>
-      <c r="F37" s="8">
-        <v>167.4188</v>
+      <c r="E37" s="4">
+        <v>-22.39511666666667</v>
+      </c>
+      <c r="F37" s="4">
+        <v>166.52278333333331</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="8">
-        <v>-21.02613333333333</v>
-      </c>
-      <c r="F38" s="8">
-        <v>167.41203333333331</v>
+      <c r="D38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="4">
+        <v>-22.303333333333331</v>
+      </c>
+      <c r="F38" s="4">
+        <v>166.59793333333329</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E39" s="4">
-        <v>-22.39511666666667</v>
+        <v>-22.554516666666672</v>
       </c>
       <c r="F39" s="4">
-        <v>166.52278333333331</v>
+        <v>166.45124999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="B40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="4">
-        <v>-22.303333333333331</v>
-      </c>
-      <c r="F40" s="4">
-        <v>166.59793333333329</v>
+      <c r="D40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="8">
+        <v>-21.077194444444441</v>
+      </c>
+      <c r="F40" s="8">
+        <v>167.4399722222222</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="4">
-        <v>-22.554516666666672</v>
-      </c>
-      <c r="F41" s="4">
-        <v>166.45124999999999</v>
+      <c r="A41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="8">
+        <v>-21.107305555555559</v>
+      </c>
+      <c r="F41" s="8">
+        <v>167.40788888888889</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="8">
-        <v>-21.077194444444441</v>
-      </c>
-      <c r="F42" s="8">
-        <v>167.4399722222222</v>
+      <c r="D42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="4">
+        <v>-20.63463888888889</v>
+      </c>
+      <c r="F42" s="4">
+        <v>166.33311111111109</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="8">
-        <v>-21.107305555555559</v>
-      </c>
-      <c r="F43" s="8">
-        <v>167.40788888888889</v>
+      <c r="A43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="4">
+        <v>-20.69605555555556</v>
+      </c>
+      <c r="F43" s="4">
+        <v>166.38405555555551</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="4">
-        <v>-20.63463888888889</v>
+        <v>-20.67241666666667</v>
       </c>
       <c r="F44" s="4">
-        <v>166.33311111111109</v>
+        <v>166.37044444444439</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E45" s="4">
-        <v>-20.69605555555556</v>
+        <v>-20.71866666666666</v>
       </c>
       <c r="F45" s="4">
-        <v>166.38405555555551</v>
+        <v>166.38847222222219</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="B46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="8">
+        <v>-21.410583333333332</v>
+      </c>
+      <c r="F46" s="8">
+        <v>164.95845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="4">
-        <v>-20.67241666666667</v>
-      </c>
-      <c r="F46" s="4">
-        <v>166.37044444444439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="4">
-        <v>-20.71866666666666</v>
-      </c>
-      <c r="F47" s="4">
-        <v>166.38847222222219</v>
+      <c r="B47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="8">
+        <v>-21.3673</v>
+      </c>
+      <c r="F47" s="8">
+        <v>164.9805833333333</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="E48" s="8">
-        <v>-21.410583333333332</v>
+        <v>-21.380333333333329</v>
       </c>
       <c r="F48" s="8">
-        <v>164.95845</v>
+        <v>164.96725000000001</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="B49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="4">
+        <v>-22.300799999999999</v>
+      </c>
+      <c r="F49" s="4">
+        <v>166.43651666666671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="8">
-        <v>-21.3673</v>
-      </c>
-      <c r="F49" s="8">
-        <v>164.9805833333333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="8">
-        <v>-21.380333333333329</v>
-      </c>
-      <c r="F50" s="8">
-        <v>164.96725000000001</v>
+      <c r="B50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="4">
+        <v>-22.367533333333331</v>
+      </c>
+      <c r="F50" s="4">
+        <v>166.30556666666669</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E51" s="4">
-        <v>-22.300799999999999</v>
+        <v>-22.32418333333333</v>
       </c>
       <c r="F51" s="4">
-        <v>166.43651666666671</v>
+        <v>166.36333333333329</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="4">
-        <v>-22.367533333333331</v>
-      </c>
-      <c r="F52" s="4">
-        <v>166.30556666666669</v>
+      <c r="B52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="8">
+        <v>-22.33883333333333</v>
+      </c>
+      <c r="F52" s="8">
+        <v>166.2388333333333</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="4">
-        <v>-22.32418333333333</v>
-      </c>
-      <c r="F53" s="4">
-        <v>166.36333333333329</v>
+      <c r="A53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="8">
+        <v>-22.257999999999999</v>
+      </c>
+      <c r="F53" s="8">
+        <v>166.38566666666671</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E54" s="8">
-        <v>-22.33883333333333</v>
+        <v>-22.293833333333339</v>
       </c>
       <c r="F54" s="8">
-        <v>166.2388333333333</v>
+        <v>166.29650000000001</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="B55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="4">
+        <v>-22.44383333333333</v>
+      </c>
+      <c r="F55" s="4">
+        <v>166.36866666666671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="8">
-        <v>-22.257999999999999</v>
-      </c>
-      <c r="F55" s="8">
-        <v>166.38566666666671</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="8">
-        <v>-22.293833333333339</v>
-      </c>
-      <c r="F56" s="8">
-        <v>166.29650000000001</v>
+      <c r="B56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="4">
+        <v>-22.332999999999998</v>
+      </c>
+      <c r="F56" s="4">
+        <v>166.42383333333331</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="E57" s="4">
-        <v>-22.44383333333333</v>
+        <v>-22.315999999999999</v>
       </c>
       <c r="F57" s="4">
-        <v>166.36866666666671</v>
+        <v>166.4553333333333</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="B58" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="8">
+        <v>-20.21263888888889</v>
+      </c>
+      <c r="F58" s="8">
+        <v>164.44258333333329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="4">
-        <v>-22.332999999999998</v>
-      </c>
-      <c r="F58" s="4">
-        <v>166.42383333333331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E59" s="4">
-        <v>-22.315999999999999</v>
-      </c>
-      <c r="F59" s="4">
-        <v>166.4553333333333</v>
+      <c r="B59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="8">
+        <v>-20.210805555555559</v>
+      </c>
+      <c r="F59" s="8">
+        <v>164.3964444444444</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E60" s="8">
-        <v>-20.21263888888889</v>
+        <v>-20.26358333333333</v>
       </c>
       <c r="F60" s="8">
-        <v>164.44258333333329</v>
+        <v>164.41788888888891</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="7" t="s">
+      <c r="B61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="8">
-        <v>-20.210805555555559</v>
-      </c>
-      <c r="F61" s="8">
-        <v>164.3964444444444</v>
+      <c r="D61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="4">
+        <v>-21.580220000000001</v>
+      </c>
+      <c r="F61" s="4">
+        <v>168.1087</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="8">
-        <v>-20.26358333333333</v>
-      </c>
-      <c r="F62" s="8">
-        <v>164.41788888888891</v>
+      <c r="A62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="4">
+        <v>-21.59422</v>
+      </c>
+      <c r="F62" s="4">
+        <v>168.10929999999999</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="B63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="8">
+        <v>-20.93397222222222</v>
+      </c>
+      <c r="F63" s="8">
+        <v>165.36980555555559</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="4">
-        <v>-21.579361111111108</v>
-      </c>
-      <c r="F63" s="4">
-        <v>168.10886111111111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="4">
-        <v>-21.594222222222221</v>
-      </c>
-      <c r="F64" s="4">
-        <v>168.1093333333333</v>
+      <c r="B64" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="8">
+        <v>-20.919750000000001</v>
+      </c>
+      <c r="F64" s="8">
+        <v>165.3688611111111</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E65" s="8">
-        <v>-20.93397222222222</v>
+        <v>-20.84536111111111</v>
       </c>
       <c r="F65" s="8">
-        <v>165.36980555555559</v>
+        <v>165.4205833333333</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="7" t="s">
+      <c r="A66" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="7" t="s">
+      <c r="B66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="8">
-        <v>-20.919750000000001</v>
-      </c>
-      <c r="F66" s="8">
-        <v>165.3688611111111</v>
+      <c r="D66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="4">
+        <v>-21.218</v>
+      </c>
+      <c r="F66" s="4">
+        <v>164.76281666666671</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="8">
-        <v>-20.84536111111111</v>
-      </c>
-      <c r="F67" s="8">
-        <v>165.4205833333333</v>
+      <c r="A67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="4">
+        <v>-21.19466666666667</v>
+      </c>
+      <c r="F67" s="4">
+        <v>164.77803333333341</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="4">
-        <v>-21.218</v>
+        <v>-21.08713333333333</v>
       </c>
       <c r="F68" s="4">
-        <v>164.76281666666671</v>
+        <v>164.76246666666671</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="B69" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E69" s="4">
-        <v>-21.19466666666667</v>
-      </c>
-      <c r="F69" s="4">
-        <v>164.77803333333341</v>
+      <c r="D69" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="8">
+        <v>-22.394116666666669</v>
+      </c>
+      <c r="F69" s="8">
+        <v>166.88284999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E70" s="4">
-        <v>-21.08713333333333</v>
-      </c>
-      <c r="F70" s="4">
-        <v>164.76246666666671</v>
+      <c r="A70" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="8">
+        <v>-22.35668333333334</v>
+      </c>
+      <c r="F70" s="8">
+        <v>166.8472166666667</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="A71" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="11" t="s">
+      <c r="B71" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="8">
-        <v>-22.394116666666669</v>
-      </c>
-      <c r="F71" s="8">
-        <v>166.88284999999999</v>
+      <c r="D71" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="4">
+        <v>-20.78788333333333</v>
+      </c>
+      <c r="F71" s="4">
+        <v>167.12178333333341</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E72" s="8">
-        <v>-22.35668333333334</v>
-      </c>
-      <c r="F72" s="8">
-        <v>166.8472166666667</v>
+      <c r="A72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="4">
+        <v>-20.78466666666667</v>
+      </c>
+      <c r="F72" s="4">
+        <v>167.1171333333333</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E73" s="4">
-        <v>-20.78788333333333</v>
+        <v>-20.793949999999999</v>
       </c>
       <c r="F73" s="4">
-        <v>167.12178333333341</v>
+        <v>167.1568833333333</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="B74" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="4">
-        <v>-20.78466666666667</v>
-      </c>
-      <c r="F74" s="4">
-        <v>167.1171333333333</v>
+      <c r="D74" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" s="8">
+        <v>-21.58175</v>
+      </c>
+      <c r="F74" s="8">
+        <v>167.85791666666671</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" s="4">
-        <v>-20.793949999999999</v>
-      </c>
-      <c r="F75" s="4">
-        <v>167.1568833333333</v>
+      <c r="A75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="8">
+        <v>-21.567944444444439</v>
+      </c>
+      <c r="F75" s="8">
+        <v>167.8723333333333</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="7" t="s">
+      <c r="B76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E76" s="8">
-        <v>-21.58175</v>
-      </c>
-      <c r="F76" s="8">
-        <v>167.85791666666671</v>
+      <c r="D76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="4">
+        <v>-21.556333333333331</v>
+      </c>
+      <c r="F76" s="4">
+        <v>166.3374666666667</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" s="8">
-        <v>-21.567944444444439</v>
-      </c>
-      <c r="F77" s="8">
-        <v>167.8723333333333</v>
+      <c r="A77" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="4">
+        <v>-21.642166666666661</v>
+      </c>
+      <c r="F77" s="4">
+        <v>166.30333333333331</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E78" s="4">
-        <v>-21.556333333333331</v>
+        <v>-21.593350000000001</v>
       </c>
       <c r="F78" s="4">
-        <v>166.3374666666667</v>
+        <v>166.2634333333333</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="3" t="s">
+      <c r="A79" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="B79" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E79" s="4">
-        <v>-21.642166666666661</v>
-      </c>
-      <c r="F79" s="4">
-        <v>166.30333333333331</v>
+      <c r="D79" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="8">
+        <v>-22.34427777777778</v>
+      </c>
+      <c r="F79" s="8">
+        <v>166.99344444444441</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E80" s="4">
-        <v>-21.593350000000001</v>
-      </c>
-      <c r="F80" s="4">
-        <v>166.2634333333333</v>
+      <c r="A80" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="8">
+        <v>-22.28733333333334</v>
+      </c>
+      <c r="F80" s="8">
+        <v>167.03675000000001</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E81" s="8">
-        <v>-22.34427777777778</v>
+        <v>-22.33336111111111</v>
       </c>
       <c r="F81" s="8">
-        <v>166.99344444444441</v>
+        <v>167.01147222222221</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="A82" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" s="8">
-        <v>-22.28733333333334</v>
-      </c>
-      <c r="F82" s="8">
-        <v>167.03675000000001</v>
+      <c r="B82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="4">
+        <v>-21.604277777777781</v>
+      </c>
+      <c r="F82" s="4">
+        <v>167.92972222222221</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="8">
-        <v>-22.33336111111111</v>
-      </c>
-      <c r="F83" s="8">
-        <v>167.01147222222221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="A83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="C83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="4">
-        <v>-21.604277777777781</v>
-      </c>
-      <c r="F84" s="4">
-        <v>167.92972222222221</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E85" s="4">
+      <c r="E83" s="4">
         <v>-21.598305555555559</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F83" s="4">
         <v>167.90172222222219</v>
       </c>
     </row>
